--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lgr5</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lgr5</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,40 +546,40 @@
         <v>0.210976</v>
       </c>
       <c r="I2">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J2">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6233136666666667</v>
+        <v>0.184159</v>
       </c>
       <c r="N2">
-        <v>1.869941</v>
+        <v>0.5524770000000001</v>
       </c>
       <c r="O2">
-        <v>0.1671957790227948</v>
+        <v>0.1331158254681294</v>
       </c>
       <c r="P2">
-        <v>0.1671957790227948</v>
+        <v>0.1331158254681294</v>
       </c>
       <c r="Q2">
-        <v>0.04383474137955556</v>
+        <v>0.01295104306133334</v>
       </c>
       <c r="R2">
-        <v>0.394512672416</v>
+        <v>0.116559387552</v>
       </c>
       <c r="S2">
-        <v>0.01374991099902284</v>
+        <v>0.02511266298316604</v>
       </c>
       <c r="T2">
-        <v>0.01374991099902283</v>
+        <v>0.02511266298316604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -608,40 +608,40 @@
         <v>0.210976</v>
       </c>
       <c r="I3">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J3">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.190009</v>
+        <v>0.6233136666666667</v>
       </c>
       <c r="N3">
-        <v>0.570027</v>
+        <v>1.869941</v>
       </c>
       <c r="O3">
-        <v>0.05096744139468926</v>
+        <v>0.4505504116763221</v>
       </c>
       <c r="P3">
-        <v>0.05096744139468926</v>
+        <v>0.450550411676322</v>
       </c>
       <c r="Q3">
-        <v>0.01336244626133333</v>
+        <v>0.04383474137955556</v>
       </c>
       <c r="R3">
-        <v>0.120262016352</v>
+        <v>0.394512672416</v>
       </c>
       <c r="S3">
-        <v>0.004191480114634627</v>
+        <v>0.08499756212730029</v>
       </c>
       <c r="T3">
-        <v>0.004191480114634626</v>
+        <v>0.08499756212730028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,40 +670,40 @@
         <v>0.210976</v>
       </c>
       <c r="I4">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J4">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.892005</v>
+        <v>0.064319</v>
       </c>
       <c r="N4">
-        <v>8.676015</v>
+        <v>0.192957</v>
       </c>
       <c r="O4">
-        <v>0.7757427035069303</v>
+        <v>0.04649176406412185</v>
       </c>
       <c r="P4">
-        <v>0.7757427035069303</v>
+        <v>0.04649176406412184</v>
       </c>
       <c r="Q4">
-        <v>0.2033812156266667</v>
+        <v>0.004523255114666667</v>
       </c>
       <c r="R4">
-        <v>1.83043094064</v>
+        <v>0.040709296032</v>
       </c>
       <c r="S4">
-        <v>0.06379582782354475</v>
+        <v>0.008770797899718484</v>
       </c>
       <c r="T4">
-        <v>0.06379582782354475</v>
+        <v>0.008770797899718482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,102 +732,102 @@
         <v>0.210976</v>
       </c>
       <c r="I5">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J5">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.022719</v>
+        <v>0.4910533333333333</v>
       </c>
       <c r="N5">
-        <v>0.06815700000000001</v>
+        <v>1.47316</v>
       </c>
       <c r="O5">
-        <v>0.006094076075585608</v>
+        <v>0.3549485488927676</v>
       </c>
       <c r="P5">
-        <v>0.006094076075585608</v>
+        <v>0.3549485488927676</v>
       </c>
       <c r="Q5">
-        <v>0.001597721248</v>
+        <v>0.03453348935111111</v>
       </c>
       <c r="R5">
-        <v>0.014379491232</v>
+        <v>0.31080140416</v>
       </c>
       <c r="S5">
-        <v>0.00050116698011349</v>
+        <v>0.06696201036474075</v>
       </c>
       <c r="T5">
-        <v>0.0005011669801134899</v>
+        <v>0.06696201036474075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.07032533333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.210976</v>
+      </c>
+      <c r="I6">
+        <v>0.1886527232569993</v>
+      </c>
+      <c r="J6">
+        <v>0.1886527232569993</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.06003333333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.1801</v>
-      </c>
-      <c r="I6">
-        <v>0.07020292973470232</v>
-      </c>
-      <c r="J6">
-        <v>0.07020292973470232</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.6233136666666667</v>
+        <v>0.02060433333333333</v>
       </c>
       <c r="N6">
-        <v>1.869941</v>
+        <v>0.061813</v>
       </c>
       <c r="O6">
-        <v>0.1671957790227948</v>
+        <v>0.0148934498986591</v>
       </c>
       <c r="P6">
-        <v>0.1671957790227948</v>
+        <v>0.0148934498986591</v>
       </c>
       <c r="Q6">
-        <v>0.03741959712222222</v>
+        <v>0.001449006609777778</v>
       </c>
       <c r="R6">
-        <v>0.3367763741</v>
+        <v>0.013041059488</v>
       </c>
       <c r="S6">
-        <v>0.01173763352667608</v>
+        <v>0.002809689882073719</v>
       </c>
       <c r="T6">
-        <v>0.01173763352667608</v>
+        <v>0.002809689882073719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H7">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I7">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J7">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.190009</v>
+        <v>0.184159</v>
       </c>
       <c r="N7">
-        <v>0.570027</v>
+        <v>0.5524770000000001</v>
       </c>
       <c r="O7">
-        <v>0.05096744139468926</v>
+        <v>0.1331158254681294</v>
       </c>
       <c r="P7">
-        <v>0.05096744139468926</v>
+        <v>0.1331158254681294</v>
       </c>
       <c r="Q7">
-        <v>0.01140687363333333</v>
+        <v>0.05569913509533335</v>
       </c>
       <c r="R7">
-        <v>0.1026618627</v>
+        <v>0.5012922158580001</v>
       </c>
       <c r="S7">
-        <v>0.003578063706988929</v>
+        <v>0.1080031624849634</v>
       </c>
       <c r="T7">
-        <v>0.003578063706988929</v>
+        <v>0.1080031624849634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H8">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I8">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J8">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.892005</v>
+        <v>0.6233136666666667</v>
       </c>
       <c r="N8">
-        <v>8.676015</v>
+        <v>1.869941</v>
       </c>
       <c r="O8">
-        <v>0.7757427035069303</v>
+        <v>0.4505504116763221</v>
       </c>
       <c r="P8">
-        <v>0.7757427035069303</v>
+        <v>0.450550411676322</v>
       </c>
       <c r="Q8">
-        <v>0.1736167001666667</v>
+        <v>0.1885220495682222</v>
       </c>
       <c r="R8">
-        <v>1.5625503015</v>
+        <v>1.696698446114</v>
       </c>
       <c r="S8">
-        <v>0.05445941050650505</v>
+        <v>0.3655528495490218</v>
       </c>
       <c r="T8">
-        <v>0.05445941050650505</v>
+        <v>0.3655528495490217</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H9">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I9">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J9">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,60 +992,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.022719</v>
+        <v>0.064319</v>
       </c>
       <c r="N9">
-        <v>0.06815700000000001</v>
+        <v>0.192957</v>
       </c>
       <c r="O9">
-        <v>0.006094076075585608</v>
+        <v>0.04649176406412185</v>
       </c>
       <c r="P9">
-        <v>0.006094076075585608</v>
+        <v>0.04649176406412184</v>
       </c>
       <c r="Q9">
-        <v>0.0013638973</v>
+        <v>0.01945336730866667</v>
       </c>
       <c r="R9">
-        <v>0.0122750757</v>
+        <v>0.175080305778</v>
       </c>
       <c r="S9">
-        <v>0.0004278219945322669</v>
+        <v>0.03772096616440337</v>
       </c>
       <c r="T9">
-        <v>0.0004278219945322669</v>
+        <v>0.03772096616440336</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7247813333333332</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H10">
-        <v>2.174344</v>
+        <v>0.907354</v>
       </c>
       <c r="I10">
-        <v>0.847558684347982</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J10">
-        <v>0.847558684347982</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,214 +1054,90 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6233136666666667</v>
+        <v>0.4910533333333333</v>
       </c>
       <c r="N10">
-        <v>1.869941</v>
+        <v>1.47316</v>
       </c>
       <c r="O10">
-        <v>0.1671957790227948</v>
+        <v>0.3549485488927676</v>
       </c>
       <c r="P10">
-        <v>0.1671957790227948</v>
+        <v>0.3549485488927676</v>
       </c>
       <c r="Q10">
-        <v>0.4517661104115555</v>
+        <v>0.1485197354044445</v>
       </c>
       <c r="R10">
-        <v>4.065894993703999</v>
+        <v>1.33667761864</v>
       </c>
       <c r="S10">
-        <v>0.1417082344970959</v>
+        <v>0.2879865385280268</v>
       </c>
       <c r="T10">
-        <v>0.1417082344970959</v>
+        <v>0.2879865385280268</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7247813333333332</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H11">
-        <v>2.174344</v>
+        <v>0.907354</v>
       </c>
       <c r="I11">
-        <v>0.847558684347982</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J11">
-        <v>0.847558684347982</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.190009</v>
+        <v>0.02060433333333333</v>
       </c>
       <c r="N11">
-        <v>0.570027</v>
+        <v>0.061813</v>
       </c>
       <c r="O11">
-        <v>0.05096744139468926</v>
+        <v>0.0148934498986591</v>
       </c>
       <c r="P11">
-        <v>0.05096744139468926</v>
+        <v>0.0148934498986591</v>
       </c>
       <c r="Q11">
-        <v>0.1377149763653333</v>
+        <v>0.006231808089111111</v>
       </c>
       <c r="R11">
-        <v>1.239434787288</v>
+        <v>0.056086272802</v>
       </c>
       <c r="S11">
-        <v>0.0431978975730657</v>
+        <v>0.01208376001658538</v>
       </c>
       <c r="T11">
-        <v>0.0431978975730657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H12">
-        <v>2.174344</v>
-      </c>
-      <c r="I12">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J12">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.892005</v>
-      </c>
-      <c r="N12">
-        <v>8.676015</v>
-      </c>
-      <c r="O12">
-        <v>0.7757427035069303</v>
-      </c>
-      <c r="P12">
-        <v>0.7757427035069303</v>
-      </c>
-      <c r="Q12">
-        <v>2.096071239906666</v>
-      </c>
-      <c r="R12">
-        <v>18.86464115915999</v>
-      </c>
-      <c r="S12">
-        <v>0.6574874651768805</v>
-      </c>
-      <c r="T12">
-        <v>0.6574874651768805</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H13">
-        <v>2.174344</v>
-      </c>
-      <c r="I13">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J13">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.022719</v>
-      </c>
-      <c r="N13">
-        <v>0.06815700000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.006094076075585608</v>
-      </c>
-      <c r="P13">
-        <v>0.006094076075585608</v>
-      </c>
-      <c r="Q13">
-        <v>0.016466307112</v>
-      </c>
-      <c r="R13">
-        <v>0.148196764008</v>
-      </c>
-      <c r="S13">
-        <v>0.005165087100939851</v>
-      </c>
-      <c r="T13">
-        <v>0.005165087100939851</v>
+        <v>0.01208376001658538</v>
       </c>
     </row>
   </sheetData>
